--- a/GithubResults_Stochastic.xlsx
+++ b/GithubResults_Stochastic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20225290\Desktop\Research\AnyLogic\OutputAnalysis\Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688D4AD3-AE4B-4E8C-972E-0447E4D50771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8306343-DD58-471E-A2C5-186E82091BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -145,7 +145,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1346,7 +1346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:F24">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1356,7 +1356,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1377,7 +1377,7 @@
   <dimension ref="A1:AB24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,19 +1455,19 @@
         <v>1</v>
       </c>
       <c r="J3" s="5">
-        <v>1.1914577932191915E-2</v>
+        <v>0.01</v>
       </c>
       <c r="K3" s="5">
-        <v>2.0766387605530612E-2</v>
+        <v>0.02</v>
       </c>
       <c r="L3" s="5">
-        <v>7.4329129445977497E-3</v>
+        <v>0.01</v>
       </c>
       <c r="M3" s="5">
-        <v>1.8787617681787463E-2</v>
+        <v>0.02</v>
       </c>
       <c r="N3" s="5">
-        <v>1.2542084678860543E-2</v>
+        <v>0.01</v>
       </c>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1498,19 +1498,19 @@
         <v>2</v>
       </c>
       <c r="J4" s="5">
-        <v>5.3441788320694454E-2</v>
+        <v>0.05</v>
       </c>
       <c r="K4" s="5">
-        <v>6.3094685772888653E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L4" s="5">
-        <v>7.1771351059973718E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M4" s="5">
-        <v>6.9018998348575722E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N4" s="5">
-        <v>3.411815897551692E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -1541,19 +1541,19 @@
         <v>3</v>
       </c>
       <c r="J5" s="5">
-        <v>9.1969262055848641E-2</v>
+        <v>0.09</v>
       </c>
       <c r="K5" s="5">
-        <v>6.3149389523056973E-2</v>
+        <v>0.06</v>
       </c>
       <c r="L5" s="5">
-        <v>3.4409293932089489E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M5" s="5">
-        <v>4.5827925329805362E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N5" s="5">
-        <v>5.861197359512043E-2</v>
+        <v>0.06</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
@@ -1584,19 +1584,19 @@
         <v>4</v>
       </c>
       <c r="J6" s="5">
-        <v>4.417392385080484E-2</v>
+        <v>0.04</v>
       </c>
       <c r="K6" s="5">
-        <v>7.6791779920383163E-2</v>
+        <v>0.08</v>
       </c>
       <c r="L6" s="5">
-        <v>7.2038140140814458E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M6" s="5">
-        <v>3.8929277901814933E-2</v>
+        <v>0.04</v>
       </c>
       <c r="N6" s="5">
-        <v>3.6884777320507413E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -1627,19 +1627,19 @@
         <v>5</v>
       </c>
       <c r="J7" s="5">
-        <v>5.5966648221273466E-2</v>
+        <v>0.06</v>
       </c>
       <c r="K7" s="5">
-        <v>4.6161587728468047E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L7" s="5">
-        <v>2.8085965331050376E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M7" s="5">
-        <v>8.112608218414967E-2</v>
+        <v>0.08</v>
       </c>
       <c r="N7" s="5">
-        <v>4.3270081306961604E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -1670,19 +1670,19 @@
         <v>6</v>
       </c>
       <c r="J8" s="5">
-        <v>3.4742187468395226E-2</v>
+        <v>0.03</v>
       </c>
       <c r="K8" s="5">
-        <v>8.8178319829578244E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L8" s="5">
-        <v>4.7050658591310662E-2</v>
+        <v>0.05</v>
       </c>
       <c r="M8" s="5">
-        <v>5.2544029822801583E-2</v>
+        <v>0.05</v>
       </c>
       <c r="N8" s="5">
-        <v>7.5593329639236581E-2</v>
+        <v>0.08</v>
       </c>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -2346,7 +2346,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:F24">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2356,7 +2356,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
